--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2521171.21687717</v>
+        <v>2625350.85132824</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>127.6008430030847</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -792,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>29.97345081965555</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>83.84750613841264</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>22.79319361026464</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1032,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>81.46084344268529</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>241.0137962776484</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>15.38185492767447</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>20.02250045837688</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.170306912261156</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>206.8973285420758</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>113.6427030833208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>100.781511665774</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>285.5970594671156</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>80.90831282609544</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1686991936197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>10.58364443467411</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1642910616442</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>104.4564809702492</v>
       </c>
       <c r="C28" t="n">
-        <v>141.2342243404111</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>233.9399788842217</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>81.26578411089024</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>89.79511523533338</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>53.82913822150018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5.42162358678916</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>98.72106119200303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.41584059195296</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>59.45282559760397</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>58.24570521548653</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.24347904696275</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2990.738333586236</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2659.675446242666</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2306.906790972551</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2306.906790972551</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2861.663743684876</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="C4" t="n">
-        <v>2861.663743684876</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="D4" t="n">
-        <v>2861.663743684876</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="E4" t="n">
-        <v>2861.663743684876</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="F4" t="n">
-        <v>2714.773796186966</v>
+        <v>264.4911660066115</v>
       </c>
       <c r="G4" t="n">
-        <v>2714.773796186966</v>
+        <v>96.78832938133044</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W4" t="n">
-        <v>2946.358194329737</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X4" t="n">
-        <v>2861.663743684876</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="Y4" t="n">
-        <v>2861.663743684876</v>
+        <v>411.3811135045219</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.7957966773201</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C7" t="n">
-        <v>148.7957966773201</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>148.7957966773201</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753374</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="X7" t="n">
-        <v>148.7957966773201</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.7957966773201</v>
+        <v>677.4387267498528</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.300932605789</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3384156653776</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>806.3384156653776</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>806.3384156653776</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>395.3525108757701</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>384.3204647611706</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>86.73686436993785</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.187066270882</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>320.187066270882</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0704268585463</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>170.0704268585463</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>170.0704268585463</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>170.0704268585463</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452385</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="U10" t="n">
-        <v>320.187066270882</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="V10" t="n">
-        <v>320.187066270882</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="W10" t="n">
-        <v>320.187066270882</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="X10" t="n">
-        <v>320.187066270882</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="Y10" t="n">
-        <v>320.187066270882</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096656</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459586</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180517</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5503,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.306025422648</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>929.3698424947406</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D19" t="n">
-        <v>779.2532030824049</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E19" t="n">
-        <v>631.3401095000117</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.4501620021014</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.2540627169813</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.5422315591794</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.954490252887</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458823</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6075,19 +6077,19 @@
         <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6208,55 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6718,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3023.484406741617</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741617</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.37685307644</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420638</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.617138214751</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>3653.915001613404</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>3425.925450715387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>3205.132871571857</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6928,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>2510.359218612828</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,16 +7192,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7266,10 +7268,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.9279362553159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855556</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084667</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300426</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926978</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>4138.923422159307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4690.833152398594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.556199993915</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.566649095898</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1167.774069952368</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7728,22 +7730,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300688</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>151.638359055005</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.97276993489153</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.9259388694753738</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>83.2711496294425</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3575234924700794</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.44677382459265</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>47.42036229045056</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>75.37549921168812</v>
       </c>
       <c r="C28" t="n">
-        <v>26.01259675821677</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>52.58301945236926</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>65.16817853567893</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>196.7278831012576</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>113.4176828771276</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9994244361421</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.4161395899843</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.96822242532727</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>88.18825743108263</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
@@ -26320,40 +26322,40 @@
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520055</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405256</v>
@@ -26448,13 +26450,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016117</v>
+        <v>-873442.0145016119</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.7312259811</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.7312259806</v>
       </c>
       <c r="E6" t="n">
-        <v>203135.7041488504</v>
+        <v>203135.7041488506</v>
       </c>
       <c r="F6" t="n">
+        <v>528548.165956206</v>
+      </c>
+      <c r="G6" t="n">
         <v>528548.1659562059</v>
-      </c>
-      <c r="G6" t="n">
-        <v>528548.1659562063</v>
       </c>
       <c r="H6" t="n">
         <v>528548.1659562062</v>
       </c>
       <c r="I6" t="n">
+        <v>528548.165956206</v>
+      </c>
+      <c r="J6" t="n">
+        <v>311016.9635589285</v>
+      </c>
+      <c r="K6" t="n">
+        <v>528548.1659562057</v>
+      </c>
+      <c r="L6" t="n">
+        <v>528548.1659562059</v>
+      </c>
+      <c r="M6" t="n">
+        <v>443493.1380206938</v>
+      </c>
+      <c r="N6" t="n">
         <v>528548.1659562058</v>
       </c>
-      <c r="J6" t="n">
-        <v>311016.9635589286</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>528548.1659562059</v>
       </c>
-      <c r="L6" t="n">
-        <v>528548.1659562062</v>
-      </c>
-      <c r="M6" t="n">
-        <v>443493.1380206942</v>
-      </c>
-      <c r="N6" t="n">
-        <v>528548.1659562062</v>
-      </c>
-      <c r="O6" t="n">
-        <v>528548.1659562064</v>
-      </c>
       <c r="P6" t="n">
-        <v>528548.1659562064</v>
+        <v>528548.1659562057</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,34 +26798,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.3943289558173</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>114.7815640946652</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>141.8621492506245</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>331.8898480104183</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>111.4435131414771</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27752,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>64.97311920388388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>45.19804192796445</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>367.3519867358061</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>21.5544293145491</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5847080020596</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>12.6516207340934</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897919</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32080,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,19 +32320,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>538.1718564803235</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200292</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991771</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35743,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>406.8301443969902</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,7 +36445,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366959</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625350.85132824</v>
+        <v>2621338.241314248</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>303.8290895531847</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>127.6008430030847</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498691</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.75019519330647</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>29.97345081965555</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.3751023006589</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>92.47445699814307</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1034,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>241.0137962776484</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.38185492767447</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>27.79970453610231</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.8973285420758</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>100.781511665774</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>285.5970594671156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="E19" t="n">
-        <v>63.16281301712667</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.58364443467411</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.1642910616442</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.4564809702492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
-        <v>233.9399788842217</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.26578411089024</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>5.42162358678916</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>59.45282559760397</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.24347904696275</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.167618932618</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2990.738333586236</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2659.675446242666</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2306.906790972551</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X2" t="n">
-        <v>2306.906790972551</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.76745899674</v>
+        <v>2283.102991989295</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125858</v>
@@ -4439,19 +4439,19 @@
         <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501178</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.3811135045219</v>
+        <v>700.0944266746557</v>
       </c>
       <c r="C4" t="n">
-        <v>411.3811135045219</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>411.3811135045219</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>411.3811135045219</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>264.4911660066115</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>96.78832938133044</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X4" t="n">
-        <v>411.3811135045219</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y4" t="n">
-        <v>411.3811135045219</v>
+        <v>700.0944266746557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3121.906610713899</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3121.906610713899</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>3121.906610713899</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>3121.906610713899</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>677.4387267498528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>677.4387267498528</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>677.4387267498528</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>677.4387267498528</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>677.4387267498528</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.4387267498528</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.833068744076</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>937.4502275783891</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>551.6619749801448</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4822,19 +4822,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4843,13 +4843,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4895,28 +4895,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>711.8998052706336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>711.8998052706336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>711.8998052706336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>711.8998052706336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>711.8998052706336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5044,16 +5044,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703114</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>695.5020655703114</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.4446166151475</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872407</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>642.3917942749049</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588917</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,13 +6259,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1380.253191019954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1152.263640121936</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>931.4710609784063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>696.7084350851671</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>546.5917956728314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2977.325134535463</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2808.388951607556</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2658.272312195221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2510.359218612828</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3158.973599365703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,55 +7393,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>763.7541388327643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>613.6374994204285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>465.7244058380354</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>318.834458340125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>151.638359055005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9259388694753738</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="E19" t="n">
-        <v>83.2711496294425</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>135.8503182118951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.42036229045056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
-        <v>52.58301945236926</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>65.16817853567893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>139.9994244361421</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>85.96822242532727</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.05123379926114</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405243</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016119</v>
+        <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
+        <v>455302.7312259815</v>
+      </c>
+      <c r="D6" t="n">
         <v>455302.7312259811</v>
       </c>
-      <c r="D6" t="n">
-        <v>455302.7312259806</v>
-      </c>
       <c r="E6" t="n">
-        <v>203135.7041488506</v>
+        <v>202788.3248944936</v>
       </c>
       <c r="F6" t="n">
-        <v>528548.165956206</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="G6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="H6" t="n">
-        <v>528548.1659562062</v>
+        <v>528200.7867018487</v>
       </c>
       <c r="I6" t="n">
-        <v>528548.165956206</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="J6" t="n">
-        <v>311016.9635589285</v>
+        <v>310669.5843045712</v>
       </c>
       <c r="K6" t="n">
-        <v>528548.1659562057</v>
+        <v>528200.7867018486</v>
       </c>
       <c r="L6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.786701849</v>
       </c>
       <c r="M6" t="n">
-        <v>443493.1380206938</v>
+        <v>443145.7587663369</v>
       </c>
       <c r="N6" t="n">
-        <v>528548.1659562058</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="O6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.786701849</v>
       </c>
       <c r="P6" t="n">
-        <v>528548.1659562057</v>
+        <v>528200.786701849</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>61.44380221782285</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>123.3943289558173</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>146.4966259053214</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>114.7815640946652</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.5552677716029</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>111.4435131414771</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>45.19804192796445</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.3519867358061</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>379.0763412056091</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>12.6516207340934</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8897444730604</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,19 +32557,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>538.1718564803235</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.6314956130953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,28 +33262,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,31 +33736,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>116.3353646931863</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>406.8301443969902</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.64972152707382</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2621338.241314248</v>
+        <v>2623098.771617033</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283162</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>303.8290895531847</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.2480189963538</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498691</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541850957</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.75019519330647</v>
+        <v>94.57983363107893</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>298.7307299422345</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>279.3751023006589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>221.7048515690722</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27.79970453610231</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>302.4730282667001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560559</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.255571502167253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>36.4306205949061</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588623</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>110.0177171766893</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012153</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881317</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>28.75188085811915</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>224.1675592379424</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012153</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673056</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766893</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012153</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.102991989295</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250375</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989295</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989295</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.0944266746557</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746557</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559527</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559527</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1514.348043559527</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535339</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559527</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125551</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>937.4502275783891</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E8" t="n">
-        <v>551.6619749801448</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>711.6209269644526</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4822,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
         <v>66.5121164321834</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5065,13 +5065,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>763.7541388327663</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>594.8179559048594</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925237</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925237</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>297.8113689946133</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>130.6152697094932</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>130.6152697094932</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>945.4026036630059</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038349</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797754</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885521</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011263</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400747</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138444</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703144</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,16 +6600,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,40 +6621,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
         <v>1491.508541327549</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>753.30924124904</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400747</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138444</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703144</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462044</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>44.8352157236594</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012153</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>72.11969353038171</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392193845</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405088</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>62.35543909864865</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392193839</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392193839</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308143</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
@@ -26325,37 +26325,37 @@
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.573620057631946e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551203</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405243</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189188</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189217</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189178</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189185</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016117</v>
+        <v>-873442.0145016115</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259815</v>
+        <v>455302.7312259806</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259811</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="E6" t="n">
-        <v>202788.3248944936</v>
+        <v>203100.9662234146</v>
       </c>
       <c r="F6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="G6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="H6" t="n">
-        <v>528200.7867018487</v>
+        <v>528513.42803077</v>
       </c>
       <c r="I6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="J6" t="n">
-        <v>310669.5843045712</v>
+        <v>310982.225633493</v>
       </c>
       <c r="K6" t="n">
-        <v>528200.7867018486</v>
+        <v>528513.42803077</v>
       </c>
       <c r="L6" t="n">
-        <v>528200.786701849</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="M6" t="n">
-        <v>443145.7587663369</v>
+        <v>443458.4000952582</v>
       </c>
       <c r="N6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="O6" t="n">
-        <v>528200.786701849</v>
+        <v>528513.4280307705</v>
       </c>
       <c r="P6" t="n">
-        <v>528200.786701849</v>
+        <v>528513.4280307703</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>61.44380221782285</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>144.9899196596998</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>146.4966259053214</v>
+        <v>72.66698746754891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877309</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.5552677716029</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>64.81814676751881</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>379.0763412056091</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>108.4486973867534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.911068911754729e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28730,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28739,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.949030143663241e-11</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
     </row>
     <row r="26">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>593.5422977113952</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295359</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295356</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37244,10 +37244,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295356</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>462.2005856280619</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295356</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
